--- a/assingment materials/balancetest.xlsx
+++ b/assingment materials/balancetest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="264">
   <si>
     <t/>
   </si>
@@ -57,13 +57,13 @@
     <t>gkspecin_encoded</t>
   </si>
   <si>
-    <t>gkpresent_encoded</t>
-  </si>
-  <si>
-    <t>gktreads_encoded</t>
-  </si>
-  <si>
-    <t>gktmaths_encoded</t>
+    <t>gkabsent_encoded</t>
+  </si>
+  <si>
+    <t>gktreadss_encoded</t>
+  </si>
+  <si>
+    <t>gktmathss_encoded</t>
   </si>
   <si>
     <t>gktlistss_encoded</t>
@@ -168,10 +168,10 @@
     <t>[0.018]</t>
   </si>
   <si>
-    <t>12.534</t>
-  </si>
-  <si>
-    <t>[0.176]</t>
+    <t>9.738</t>
+  </si>
+  <si>
+    <t>[0.124]</t>
   </si>
   <si>
     <t>1.497</t>
@@ -189,43 +189,46 @@
     <t>1.044</t>
   </si>
   <si>
-    <t>67.373</t>
-  </si>
-  <si>
-    <t>[0.452]</t>
-  </si>
-  <si>
-    <t>42.571</t>
-  </si>
-  <si>
-    <t>[0.372]</t>
-  </si>
-  <si>
-    <t>23.866</t>
-  </si>
-  <si>
-    <t>[0.158]</t>
-  </si>
-  <si>
-    <t>23.978</t>
-  </si>
-  <si>
-    <t>[0.152]</t>
-  </si>
-  <si>
-    <t>18.899</t>
-  </si>
-  <si>
-    <t>15.607</t>
+    <t>10.900</t>
+  </si>
+  <si>
+    <t>[0.215]</t>
+  </si>
+  <si>
+    <t>435.430</t>
+  </si>
+  <si>
+    <t>[0.697]</t>
+  </si>
+  <si>
+    <t>482.796</t>
+  </si>
+  <si>
+    <t>[1.005]</t>
+  </si>
+  <si>
+    <t>535.544</t>
+  </si>
+  <si>
+    <t>[0.723]</t>
+  </si>
+  <si>
+    <t>433.012</t>
+  </si>
+  <si>
+    <t>[0.809]</t>
+  </si>
+  <si>
+    <t>25.607</t>
   </si>
   <si>
     <t>[0.058]</t>
   </si>
   <si>
-    <t>26.801</t>
-  </si>
-  <si>
-    <t>[0.117]</t>
+    <t>55.793</t>
+  </si>
+  <si>
+    <t>[0.118]</t>
   </si>
   <si>
     <t>2194</t>
@@ -246,7 +249,7 @@
     <t>2186</t>
   </si>
   <si>
-    <t>2166</t>
+    <t>2167</t>
   </si>
   <si>
     <t>2006</t>
@@ -297,10 +300,10 @@
     <t>[0.028]</t>
   </si>
   <si>
-    <t>11.958</t>
-  </si>
-  <si>
-    <t>[0.175]</t>
+    <t>9.068</t>
+  </si>
+  <si>
+    <t>[0.122]</t>
   </si>
   <si>
     <t>1.523</t>
@@ -315,43 +318,46 @@
     <t>1.040</t>
   </si>
   <si>
-    <t>68.241</t>
-  </si>
-  <si>
-    <t>[0.451]</t>
-  </si>
-  <si>
-    <t>42.405</t>
-  </si>
-  <si>
-    <t>[0.386]</t>
-  </si>
-  <si>
-    <t>23.905</t>
-  </si>
-  <si>
-    <t>[0.168]</t>
-  </si>
-  <si>
-    <t>24.387</t>
-  </si>
-  <si>
-    <t>[0.156]</t>
-  </si>
-  <si>
-    <t>18.774</t>
-  </si>
-  <si>
-    <t>15.645</t>
+    <t>10.533</t>
+  </si>
+  <si>
+    <t>[0.211]</t>
+  </si>
+  <si>
+    <t>434.732</t>
+  </si>
+  <si>
+    <t>[0.691]</t>
+  </si>
+  <si>
+    <t>483.199</t>
+  </si>
+  <si>
+    <t>[1.057]</t>
+  </si>
+  <si>
+    <t>537.378</t>
+  </si>
+  <si>
+    <t>[0.741]</t>
+  </si>
+  <si>
+    <t>431.945</t>
+  </si>
+  <si>
+    <t>[0.797]</t>
+  </si>
+  <si>
+    <t>25.645</t>
   </si>
   <si>
     <t>[0.061]</t>
   </si>
   <si>
-    <t>26.768</t>
-  </si>
-  <si>
-    <t>[0.124]</t>
+    <t>55.750</t>
+  </si>
+  <si>
+    <t>[0.127]</t>
   </si>
   <si>
     <t>1900</t>
@@ -369,7 +375,7 @@
     <t>1891</t>
   </si>
   <si>
-    <t>1884</t>
+    <t>1883</t>
   </si>
   <si>
     <t>1739</t>
@@ -423,10 +429,10 @@
     <t>[0.025]</t>
   </si>
   <si>
-    <t>12.948</t>
-  </si>
-  <si>
-    <t>[0.188]</t>
+    <t>8.919</t>
+  </si>
+  <si>
+    <t>[0.133]</t>
   </si>
   <si>
     <t>1.529</t>
@@ -444,46 +450,46 @@
     <t>[0.005]</t>
   </si>
   <si>
-    <t>67.882</t>
-  </si>
-  <si>
-    <t>[0.486]</t>
-  </si>
-  <si>
-    <t>45.672</t>
-  </si>
-  <si>
-    <t>[0.419]</t>
-  </si>
-  <si>
-    <t>25.045</t>
-  </si>
-  <si>
-    <t>[0.179]</t>
-  </si>
-  <si>
-    <t>24.927</t>
-  </si>
-  <si>
-    <t>[0.164]</t>
-  </si>
-  <si>
-    <t>19.983</t>
-  </si>
-  <si>
-    <t>[0.169]</t>
-  </si>
-  <si>
-    <t>15.707</t>
-  </si>
-  <si>
-    <t>[0.063]</t>
-  </si>
-  <si>
-    <t>27.384</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
+    <t>10.021</t>
+  </si>
+  <si>
+    <t>[0.214]</t>
+  </si>
+  <si>
+    <t>440.547</t>
+  </si>
+  <si>
+    <t>[0.779]</t>
+  </si>
+  <si>
+    <t>490.931</t>
+  </si>
+  <si>
+    <t>[1.179]</t>
+  </si>
+  <si>
+    <t>539.857</t>
+  </si>
+  <si>
+    <t>[0.792]</t>
+  </si>
+  <si>
+    <t>438.136</t>
+  </si>
+  <si>
+    <t>[0.894]</t>
+  </si>
+  <si>
+    <t>25.700</t>
+  </si>
+  <si>
+    <t>[0.065]</t>
+  </si>
+  <si>
+    <t>56.348</t>
+  </si>
+  <si>
+    <t>[0.135]</t>
   </si>
   <si>
     <t>6325</t>
@@ -561,10 +567,10 @@
     <t>[0.014]</t>
   </si>
   <si>
-    <t>12.459</t>
-  </si>
-  <si>
-    <t>[0.104]</t>
+    <t>9.258</t>
+  </si>
+  <si>
+    <t>[0.073]</t>
   </si>
   <si>
     <t>1.516</t>
@@ -585,46 +591,43 @@
     <t>[0.003]</t>
   </si>
   <si>
-    <t>67.827</t>
-  </si>
-  <si>
-    <t>[0.267]</t>
-  </si>
-  <si>
-    <t>43.445</t>
-  </si>
-  <si>
-    <t>[0.227]</t>
-  </si>
-  <si>
-    <t>24.233</t>
-  </si>
-  <si>
-    <t>[0.097]</t>
-  </si>
-  <si>
-    <t>24.405</t>
-  </si>
-  <si>
-    <t>[0.091]</t>
-  </si>
-  <si>
-    <t>19.181</t>
-  </si>
-  <si>
-    <t>[0.092]</t>
-  </si>
-  <si>
-    <t>15.651</t>
+    <t>10.508</t>
+  </si>
+  <si>
+    <t>[0.123]</t>
+  </si>
+  <si>
+    <t>436.725</t>
+  </si>
+  <si>
+    <t>[0.417]</t>
+  </si>
+  <si>
+    <t>485.377</t>
+  </si>
+  <si>
+    <t>[0.623]</t>
+  </si>
+  <si>
+    <t>537.475</t>
+  </si>
+  <si>
+    <t>[0.434]</t>
+  </si>
+  <si>
+    <t>434.179</t>
+  </si>
+  <si>
+    <t>[0.481]</t>
+  </si>
+  <si>
+    <t>25.649</t>
   </si>
   <si>
     <t>[0.035]</t>
   </si>
   <si>
-    <t>26.970</t>
-  </si>
-  <si>
-    <t>[0.071]</t>
+    <t>55.950</t>
   </si>
   <si>
     <t>t-test</t>
@@ -657,7 +660,7 @@
     <t>-0.293***</t>
   </si>
   <si>
-    <t>0.576**</t>
+    <t>0.670***</t>
   </si>
   <si>
     <t>-0.026*</t>
@@ -672,25 +675,25 @@
     <t>0.004</t>
   </si>
   <si>
-    <t>-0.868</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>-0.039</t>
-  </si>
-  <si>
-    <t>-0.410*</t>
-  </si>
-  <si>
-    <t>0.124</t>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>-0.403</t>
+  </si>
+  <si>
+    <t>-1.834*</t>
+  </si>
+  <si>
+    <t>1.067</t>
   </si>
   <si>
     <t>-0.037</t>
   </si>
   <si>
-    <t>0.032</t>
+    <t>0.043</t>
   </si>
   <si>
     <t>(1)-(3)</t>
@@ -711,7 +714,7 @@
     <t>-0.072**</t>
   </si>
   <si>
-    <t>-0.414</t>
+    <t>0.819***</t>
   </si>
   <si>
     <t>-0.032**</t>
@@ -726,25 +729,25 @@
     <t>-0.011*</t>
   </si>
   <si>
-    <t>-0.509</t>
-  </si>
-  <si>
-    <t>-3.101***</t>
-  </si>
-  <si>
-    <t>-1.180***</t>
-  </si>
-  <si>
-    <t>-0.949***</t>
-  </si>
-  <si>
-    <t>-1.084***</t>
-  </si>
-  <si>
-    <t>-0.100</t>
-  </si>
-  <si>
-    <t>-0.584***</t>
+    <t>0.879***</t>
+  </si>
+  <si>
+    <t>-5.118***</t>
+  </si>
+  <si>
+    <t>-8.135***</t>
+  </si>
+  <si>
+    <t>-4.313***</t>
+  </si>
+  <si>
+    <t>-5.124***</t>
+  </si>
+  <si>
+    <t>-0.092</t>
+  </si>
+  <si>
+    <t>-0.556***</t>
   </si>
   <si>
     <t>(2)-(3)</t>
@@ -768,7 +771,7 @@
     <t>0.221***</t>
   </si>
   <si>
-    <t>-0.990***</t>
+    <t>0.149</t>
   </si>
   <si>
     <t>-0.006</t>
@@ -783,25 +786,25 @@
     <t>-0.016**</t>
   </si>
   <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>-3.267***</t>
-  </si>
-  <si>
-    <t>-1.140***</t>
-  </si>
-  <si>
-    <t>-0.540**</t>
-  </si>
-  <si>
-    <t>-1.209***</t>
-  </si>
-  <si>
-    <t>-0.062</t>
-  </si>
-  <si>
-    <t>-0.616***</t>
+    <t>0.512*</t>
+  </si>
+  <si>
+    <t>-5.815***</t>
+  </si>
+  <si>
+    <t>-7.732***</t>
+  </si>
+  <si>
+    <t>-2.479**</t>
+  </si>
+  <si>
+    <t>-6.191***</t>
+  </si>
+  <si>
+    <t>-0.055</t>
+  </si>
+  <si>
+    <t>-0.598***</t>
   </si>
 </sst>
 </file>
@@ -862,28 +865,28 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
@@ -900,28 +903,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +956,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
@@ -973,31 +976,31 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -1049,31 +1052,31 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -1125,31 +1128,31 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -1201,31 +1204,31 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11">
@@ -1277,31 +1280,31 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13">
@@ -1318,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
         <v>0</v>
@@ -1353,31 +1356,31 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -1394,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
@@ -1429,31 +1432,31 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
@@ -1470,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -1505,31 +1508,31 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19">
@@ -1546,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -1581,31 +1584,31 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21">
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -1657,31 +1660,31 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23">
@@ -1710,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -1733,31 +1736,31 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
@@ -1809,31 +1812,31 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -1856,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
         <v>0</v>
@@ -1885,31 +1888,31 @@
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -1926,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
@@ -1961,31 +1964,31 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
@@ -2002,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J31" t="s">
         <v>0</v>
@@ -2037,31 +2040,31 @@
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
@@ -2078,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J33" t="s">
         <v>0</v>
@@ -2113,31 +2116,31 @@
         <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35">
@@ -2154,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J35" t="s">
         <v>0</v>
@@ -2189,31 +2192,31 @@
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37">
@@ -2224,25 +2227,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
         <v>0</v>
@@ -2262,34 +2265,34 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
@@ -2300,25 +2303,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H39" t="s">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J39" t="s">
         <v>0</v>
@@ -2338,34 +2341,34 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41">
@@ -2376,25 +2379,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J41" t="s">
         <v>0</v>

--- a/assingment materials/balancetest.xlsx
+++ b/assingment materials/balancetest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
   <si>
     <t/>
   </si>
@@ -39,9 +39,6 @@
     <t>gkthighdegree_encoded</t>
   </si>
   <si>
-    <t>gktcareer_encoded</t>
-  </si>
-  <si>
     <t>gkfreelunch_encoded</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>2210</t>
   </si>
   <si>
-    <t>2044</t>
-  </si>
-  <si>
     <t>2221</t>
   </si>
   <si>
@@ -111,51 +105,45 @@
     <t>1.384</t>
   </si>
   <si>
-    <t>2.080</t>
+    <t>1.497</t>
+  </si>
+  <si>
+    <t>9.738</t>
+  </si>
+  <si>
+    <t>[0.124]</t>
+  </si>
+  <si>
+    <t>2194</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>2172</t>
+  </si>
+  <si>
+    <t>2187</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>REGULAR CLASS</t>
+  </si>
+  <si>
+    <t>1.510</t>
+  </si>
+  <si>
+    <t>4.685</t>
+  </si>
+  <si>
+    <t>2.126</t>
   </si>
   <si>
     <t>[0.018]</t>
   </si>
   <si>
-    <t>1.497</t>
-  </si>
-  <si>
-    <t>9.738</t>
-  </si>
-  <si>
-    <t>[0.124]</t>
-  </si>
-  <si>
-    <t>2194</t>
-  </si>
-  <si>
-    <t>2192</t>
-  </si>
-  <si>
-    <t>2172</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>REGULAR CLASS</t>
-  </si>
-  <si>
-    <t>1.510</t>
-  </si>
-  <si>
-    <t>4.685</t>
-  </si>
-  <si>
-    <t>2.126</t>
-  </si>
-  <si>
     <t>1.801</t>
   </si>
   <si>
@@ -168,12 +156,6 @@
     <t>[0.012]</t>
   </si>
   <si>
-    <t>2.373</t>
-  </si>
-  <si>
-    <t>[0.028]</t>
-  </si>
-  <si>
     <t>1.523</t>
   </si>
   <si>
@@ -189,9 +171,6 @@
     <t>1899</t>
   </si>
   <si>
-    <t>1716</t>
-  </si>
-  <si>
     <t>1892</t>
   </si>
   <si>
@@ -225,12 +204,6 @@
     <t>[0.015]</t>
   </si>
   <si>
-    <t>2.152</t>
-  </si>
-  <si>
-    <t>[0.025]</t>
-  </si>
-  <si>
     <t>1.529</t>
   </si>
   <si>
@@ -252,9 +225,6 @@
     <t>6304</t>
   </si>
   <si>
-    <t>5729</t>
-  </si>
-  <si>
     <t>6300</t>
   </si>
   <si>
@@ -288,12 +258,6 @@
     <t>[0.007]</t>
   </si>
   <si>
-    <t>2.202</t>
-  </si>
-  <si>
-    <t>[0.014]</t>
-  </si>
-  <si>
     <t>1.516</t>
   </si>
   <si>
@@ -330,9 +294,6 @@
     <t>-0.009</t>
   </si>
   <si>
-    <t>-0.293***</t>
-  </si>
-  <si>
     <t>-0.026*</t>
   </si>
   <si>
@@ -354,9 +315,6 @@
     <t>-0.015</t>
   </si>
   <si>
-    <t>-0.072**</t>
-  </si>
-  <si>
     <t>-0.032**</t>
   </si>
   <si>
@@ -379,9 +337,6 @@
   </si>
   <si>
     <t>0.012</t>
-  </si>
-  <si>
-    <t>0.221***</t>
   </si>
   <si>
     <t>-0.006</t>
@@ -431,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -442,34 +397,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -480,34 +435,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -515,37 +470,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -553,37 +508,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -594,25 +549,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -629,37 +584,37 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -670,25 +625,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -705,37 +660,37 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -746,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
@@ -781,37 +736,37 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -822,25 +777,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
@@ -857,37 +812,37 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
         <v>77</v>
       </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -898,25 +853,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
         <v>0</v>
@@ -933,37 +888,37 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -974,25 +929,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
@@ -1009,37 +964,37 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1050,25 +1005,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -1085,37 +1040,37 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -1126,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -1161,66 +1116,66 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -1229,82 +1184,6 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
         <v>0</v>
       </c>
     </row>
